--- a/DataTables/Datas/test/table_one.xlsx
+++ b/DataTables/Datas/test/table_one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\DataTables\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2767C82F-0291-49E9-A6C0-5979641A181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A33EF5-A0BD-4057-A5EC-07082B94C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="3120" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38550" yWindow="3795" windowWidth="38430" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -117,10 +117,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,25 +414,25 @@
     <col min="13" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -462,16 +462,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="G10:J10"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
